--- a/Proyectos/2016/Cambios/Solicitud_Cambios_160630.xlsx
+++ b/Proyectos/2016/Cambios/Solicitud_Cambios_160630.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novela\Documents\Qualtop\SOSQTP\Proyectos\2016\Cambios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="15480" windowHeight="8070" tabRatio="663"/>
   </bookViews>
@@ -36,7 +31,7 @@
     <definedName name="Ocupacion">[2]Parámetros!$B$22:$B$23</definedName>
     <definedName name="UEN">[3]Parámetros!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,7 +41,7 @@
     <author>Novela</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0">
+    <comment ref="J12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Datos Generales</t>
   </si>
@@ -284,6 +279,9 @@
   </si>
   <si>
     <t>Notificar en Chat Bitrix de la adición de los 2 productos</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
   </si>
 </sst>
 </file>
@@ -920,6 +918,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="21" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -942,9 +943,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="21" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,30 +972,30 @@
     <cellStyle name="Accent5" xfId="25"/>
     <cellStyle name="Accent6" xfId="26"/>
     <cellStyle name="Bad" xfId="29"/>
+    <cellStyle name="Buena" xfId="27" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="19"/>
-    <cellStyle name="Check Cell" xfId="20" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="48" builtinId="4"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="31" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="28" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="30" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Euro" xfId="47"/>
     <cellStyle name="Explanatory Text" xfId="37"/>
-    <cellStyle name="Good" xfId="27" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="39"/>
     <cellStyle name="Heading 2" xfId="40"/>
     <cellStyle name="Heading 3" xfId="41"/>
-    <cellStyle name="Heading 4" xfId="28" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="30" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="31" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Moneda" xfId="48" builtinId="4"/>
     <cellStyle name="Moneda 2" xfId="32"/>
     <cellStyle name="Neutral" xfId="33" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="44"/>
     <cellStyle name="Normal 2 2" xfId="46"/>
     <cellStyle name="Normal 3" xfId="45"/>
-    <cellStyle name="Note" xfId="34" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="34" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="36"/>
     <cellStyle name="Porcentual 2" xfId="35"/>
+    <cellStyle name="Texto de advertencia" xfId="43" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Title" xfId="38"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1590,9 +1588,11 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
@@ -1869,12 +1869,12 @@
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1884,14 +1884,14 @@
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1902,14 +1902,14 @@
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1920,12 +1920,12 @@
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1935,68 +1935,68 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="29"/>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="29">
+      <c r="C7" s="23"/>
+      <c r="D7" s="30">
         <v>42551</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
@@ -2081,7 +2081,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="30">
+      <c r="E17" s="22">
         <v>42552</v>
       </c>
       <c r="F17" s="7"/>
@@ -2103,7 +2103,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="30">
+      <c r="E18" s="22">
         <v>42552</v>
       </c>
       <c r="F18" s="7"/>
@@ -2125,7 +2125,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="30">
+      <c r="E19" s="22">
         <v>42552</v>
       </c>
       <c r="F19" s="7"/>
@@ -2147,7 +2147,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="30">
+      <c r="E20" s="22">
         <v>42552</v>
       </c>
       <c r="F20" s="7"/>
@@ -2169,7 +2169,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="30">
+      <c r="E21" s="22">
         <v>42552</v>
       </c>
       <c r="F21" s="7"/>
@@ -2221,10 +2221,10 @@
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
@@ -2280,10 +2280,10 @@
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
@@ -2299,16 +2299,26 @@
       <c r="C35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="22">
+        <v>42587</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B11:J11"/>
@@ -2322,14 +2332,8 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
       <formula1>$F$2:$F$5</formula1>
     </dataValidation>

--- a/Proyectos/2016/Cambios/Solicitud_Cambios_160630.xlsx
+++ b/Proyectos/2016/Cambios/Solicitud_Cambios_160630.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novela\Documents\Qualtop\SOSQTP\Proyectos\2016\Cambios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="15480" windowHeight="8070" tabRatio="663"/>
   </bookViews>
@@ -31,7 +36,7 @@
     <definedName name="Ocupacion">[2]Parámetros!$B$22:$B$23</definedName>
     <definedName name="UEN">[3]Parámetros!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -41,7 +46,7 @@
     <author>Novela</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0">
+    <comment ref="J12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -972,30 +977,30 @@
     <cellStyle name="Accent5" xfId="25"/>
     <cellStyle name="Accent6" xfId="26"/>
     <cellStyle name="Bad" xfId="29"/>
-    <cellStyle name="Buena" xfId="27" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="19"/>
-    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="31" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="28" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="30" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="20" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="48" builtinId="4"/>
     <cellStyle name="Euro" xfId="47"/>
     <cellStyle name="Explanatory Text" xfId="37"/>
+    <cellStyle name="Good" xfId="27" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="39"/>
     <cellStyle name="Heading 2" xfId="40"/>
     <cellStyle name="Heading 3" xfId="41"/>
-    <cellStyle name="Moneda" xfId="48" builtinId="4"/>
+    <cellStyle name="Heading 4" xfId="28" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="30" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="31" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Moneda 2" xfId="32"/>
     <cellStyle name="Neutral" xfId="33" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="44"/>
     <cellStyle name="Normal 2 2" xfId="46"/>
     <cellStyle name="Normal 3" xfId="45"/>
-    <cellStyle name="Notas" xfId="34" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="34" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="36"/>
     <cellStyle name="Porcentual 2" xfId="35"/>
-    <cellStyle name="Texto de advertencia" xfId="43" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Title" xfId="38"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1588,11 +1593,11 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
@@ -2313,12 +2318,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B11:J11"/>
@@ -2332,6 +2331,12 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
@@ -2355,6 +2360,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="$Resources:CType_PWS_Document(1)" ma:contentTypeID="0x0101008A98423170284BEEB635F43C3CF4E98B001A4A1163653B6846ADC5D60A25EBD429" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="e2271a139a2b8ee801614f6b11c48dd3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="035E5738-9077-49AA-867C-265905AEBD06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7346a5ed0265b509ea77989a5de5de18" ns2:_="">
     <xsd:import namespace="035E5738-9077-49AA-867C-265905AEBD06"/>
@@ -2438,15 +2452,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -2463,6 +2468,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F292331-53F9-4EF7-AEE3-BD24EFCEB3B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9B730C3-1047-4794-B798-57186B6BC346}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2475,14 +2488,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F292331-53F9-4EF7-AEE3-BD24EFCEB3B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
